--- a/jpcore-r4/feature/改行テスト/StructureDefinition-JP-Specimen.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-JP-Specimen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="359">
   <si>
     <t>Property</t>
   </si>
@@ -148,10 +148,6 @@
     <t>分析に使用するサンプル。 / A sample to be used for analysis.</t>
   </si>
   <si>
-    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Role[classCode=SPEC]</t>
   </si>
   <si>
@@ -196,208 +192,208 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t>Specimen.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>エレメント相互参照のためのユニークID</t>
+  </si>
+  <si>
+    <t>リソース内の要素の固有ID（内部参照用）。これは、スペースを含まない任意の文字列値である可能性があります。</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Specimen.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>実装によって定義される追加コンテンツ</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
+  </si>
+  <si>
+    <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>拡張子は常にURLで切り片にされます。</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
+ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Specimen.meta.versionId</t>
+  </si>
+  <si>
+    <t>バージョン固有の識別子 (Baajon koyū no shikibetsu-shi)</t>
+  </si>
+  <si>
+    <t>URLのバージョン部分に表示されるバージョン固有の識別子。この値は、リソースが作成、更新、または削除された場合に変更されます。</t>
+  </si>
+  <si>
+    <t>サーバーがこの値を割り当て、クライアントが指定した値を無視する。ただし、サーバーが更新/削除時にバージョンの整合性を強制する場合を除く。</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Specimen.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>リソースのバージョンが最後に変更されたとき</t>
+  </si>
+  <si>
+    <t>リソースが最後に変更されたとき - 例えば、バージョンが変更されたとき。</t>
+  </si>
+  <si>
+    <t>この値はリソースが初めて作成される場合を除いて常に設定されています。サーバー/リソースマネージャーがこの値を設定します。クライアントが提供する値は関係ありません。これはHTTP Last-Modifiedに相当し、[read](http://hl7.org/fhir/R4/http.html#read)のインタラクションで同じ値を持つべきです。</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>Specimen.meta.source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>「リソースがどこから来たかを特定する」(Risōsu ga doko kara kita ka o tokutei suru)</t>
+  </si>
+  <si>
+    <t>リソースのソースシステムを識別するURI。これにより、リソース内の情報のソースをトラックまたは区別するために使用できる最小限の[プロビナンス]（provenance.html＃）情報が提供されます。ソースは、別のFHIRサーバー、ドキュメント、メッセージ、データベースなどを識別できます。</t>
+  </si>
+  <si>
+    <t>プロバナンスのリソースにおいて、これはProvenance.entity.what[x]に対応します。ソースの正確な使用方法（および含意されるProvenance.entity.role）は実装者の判断に委ねられます。指定されたソースは1つだけです。追加のプロバナンスの詳細が必要な場合は、完全なプロバナンスリソースを使用するべきです。
+この要素は、正規のURLでホストされていないリソースの現在のマスターソースがどこにあるかを示すために使用できます。</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>Specimen.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition)
+</t>
+  </si>
+  <si>
+    <t>このリソースが適合を主張するプロファイル</t>
+  </si>
+  <si>
+    <t>このリソースが準拠すると主張する [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) リソースに関するプロファイルのリストです。URL は [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url) への参照です。</t>
+  </si>
+  <si>
+    <t>これらの主張が時間の経過に伴って検証または更新される方法と、それらを決定するサーバーや他の基盤に任されます。プロファイルURLのリストは1セットです。</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>Specimen.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>このリソースに適用されたセキュリティラベル</t>
+  </si>
+  <si>
+    <t>このリソースにはセキュリティラベルが適用されています。これらのタグにより、特定のリソースが全体的なセキュリティポリシーやインフラストラクチャに関連付けられます。</t>
+  </si>
+  <si>
+    <t>セキュリティラベルは変更せずにリソースのバージョンを更新可能です。セキュリティラベルのリストはセットであり、一意性はシステム/コードに基づき、バージョンと表示は無視されます。</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>医療プライバシーおよびセキュリティ分類システムからのセキュリティラベル。</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>Specimen.meta.tag</t>
+  </si>
+  <si>
+    <t>このリソースに適用されたタグ</t>
+  </si>
+  <si>
+    <t>このリソースに適用されるタグです。タグは、リソースをプロセスやワークフローに識別し、関連付けるために使用することが意図されており、アプリケーションはリソースの意味を解釈する際にタグを考慮する必要はありません。</t>
+  </si>
+  <si>
+    <t>リソースの表示バージョンを変更することなく、タグを更新できます。タグのリストは集合です。ユニーク性はシステム/コードに基づき、バージョンと表示は無視されます。</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>様々なタグを表すコードで、一般的にはワークフローに関連しています。例：「ジョーンズ博士によるレビューが必要です」。</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>Specimen.implicitRules</t>
+  </si>
+  <si>
+    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>Specimen.meta.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>エレメント相互参照のためのユニークID</t>
-  </si>
-  <si>
-    <t>リソース内の要素の固有ID（内部参照用）。これは、スペースを含まない任意の文字列値である可能性があります。</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Specimen.meta.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>実装によって定義される追加コンテンツ</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
-  </si>
-  <si>
-    <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>拡張子は常にURLで切り片にされます。</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Specimen.meta.versionId</t>
-  </si>
-  <si>
-    <t>バージョン固有の識別子 (Baajon koyū no shikibetsu-shi)</t>
-  </si>
-  <si>
-    <t>URLのバージョン部分に表示されるバージョン固有の識別子。この値は、リソースが作成、更新、または削除された場合に変更されます。</t>
-  </si>
-  <si>
-    <t>サーバーがこの値を割り当て、クライアントが指定した値を無視する。ただし、サーバーが更新/削除時にバージョンの整合性を強制する場合を除く。</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Specimen.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>リソースのバージョンが最後に変更されたとき</t>
-  </si>
-  <si>
-    <t>リソースが最後に変更されたとき - 例えば、バージョンが変更されたとき。</t>
-  </si>
-  <si>
-    <t>この値はリソースが初めて作成される場合を除いて常に設定されています。サーバー/リソースマネージャーがこの値を設定します。クライアントが提供する値は関係ありません。これはHTTP Last-Modifiedに相当し、[read](http://hl7.org/fhir/R4/http.html#read)のインタラクションで同じ値を持つべきです。</t>
-  </si>
-  <si>
-    <t>Meta.lastUpdated</t>
-  </si>
-  <si>
-    <t>Specimen.meta.source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>「リソースがどこから来たかを特定する」(Risōsu ga doko kara kita ka o tokutei suru)</t>
-  </si>
-  <si>
-    <t>リソースのソースシステムを識別するURI。これにより、リソース内の情報のソースをトラックまたは区別するために使用できる最小限の[プロビナンス]（provenance.html＃）情報が提供されます。ソースは、別のFHIRサーバー、ドキュメント、メッセージ、データベースなどを識別できます。</t>
-  </si>
-  <si>
-    <t>プロバナンスのリソースにおいて、これはProvenance.entity.what[x]に対応します。ソースの正確な使用方法（および含意されるProvenance.entity.role）は実装者の判断に委ねられます。指定されたソースは1つだけです。追加のプロバナンスの詳細が必要な場合は、完全なプロバナンスリソースを使用するべきです。
-この要素は、正規のURLでホストされていないリソースの現在のマスターソースがどこにあるかを示すために使用できます。</t>
-  </si>
-  <si>
-    <t>Meta.source</t>
-  </si>
-  <si>
-    <t>Specimen.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
-</t>
-  </si>
-  <si>
-    <t>このリソースが適合を主張するプロファイル</t>
-  </si>
-  <si>
-    <t>このリソースが準拠すると主張する [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) リソースに関するプロファイルのリストです。URL は [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url) への参照です。</t>
-  </si>
-  <si>
-    <t>これらの主張が時間の経過に伴って検証または更新される方法と、それらを決定するサーバーや他の基盤に任されます。プロファイルURLのリストは1セットです。</t>
-  </si>
-  <si>
-    <t>Meta.profile</t>
-  </si>
-  <si>
-    <t>Specimen.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>このリソースに適用されたセキュリティラベル</t>
-  </si>
-  <si>
-    <t>このリソースにはセキュリティラベルが適用されています。これらのタグにより、特定のリソースが全体的なセキュリティポリシーやインフラストラクチャに関連付けられます。</t>
-  </si>
-  <si>
-    <t>セキュリティラベルは変更せずにリソースのバージョンを更新可能です。セキュリティラベルのリストはセットであり、一意性はシステム/コードに基づき、バージョンと表示は無視されます。</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>医療プライバシーおよびセキュリティ分類システムからのセキュリティラベル。</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Meta.security</t>
-  </si>
-  <si>
-    <t>Specimen.meta.tag</t>
-  </si>
-  <si>
-    <t>このリソースに適用されたタグ</t>
-  </si>
-  <si>
-    <t>このリソースに適用されるタグです。タグは、リソースをプロセスやワークフローに識別し、関連付けるために使用することが意図されており、アプリケーションはリソースの意味を解釈する際にタグを考慮する必要はありません。</t>
-  </si>
-  <si>
-    <t>リソースの表示バージョンを変更することなく、タグを更新できます。タグのリストは集合です。ユニーク性はシステム/コードに基づき、バージョンと表示は無視されます。</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>様々なタグを表すコードで、一般的にはワークフローに関連しています。例：「ジョーンズ博士によるレビューが必要です」。</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>Meta.tag</t>
-  </si>
-  <si>
-    <t>Specimen.implicitRules</t>
-  </si>
-  <si>
-    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
   </si>
   <si>
     <t>Specimen.language</t>
@@ -1602,10 +1598,10 @@
         <v>37</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>43</v>
-      </c>
-      <c r="AK1" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="AL1" t="s" s="2">
         <v>37</v>
@@ -1616,10 +1612,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1630,28 +1626,28 @@
         <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J2" t="s" s="2">
+      <c r="K2" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1701,13 +1697,13 @@
         <v>37</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>37</v>
@@ -1727,10 +1723,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1741,25 +1737,25 @@
         <v>38</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>47</v>
-      </c>
       <c r="K3" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>55</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>56</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1810,19 +1806,19 @@
         <v>37</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>37</v>
@@ -1836,10 +1832,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1850,7 +1846,7 @@
         <v>38</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>37</v>
@@ -1862,13 +1858,13 @@
         <v>37</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="M4" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>62</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1919,13 +1915,13 @@
         <v>37</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>37</v>
@@ -1934,7 +1930,7 @@
         <v>37</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>37</v>
@@ -1945,14 +1941,14 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
@@ -1971,16 +1967,16 @@
         <v>37</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>68</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>70</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2018,19 +2014,19 @@
         <v>37</v>
       </c>
       <c r="AB5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE5" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="AC5" t="s" s="2">
+      <c r="AF5" t="s" s="2">
         <v>72</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>38</v>
@@ -2042,10 +2038,10 @@
         <v>37</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>37</v>
@@ -2056,10 +2052,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2070,28 +2066,28 @@
         <v>38</v>
       </c>
       <c r="G6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H6" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J6" t="s" s="2">
+      <c r="K6" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="L6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2141,19 +2137,19 @@
         <v>37</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>37</v>
@@ -2167,10 +2163,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2181,28 +2177,28 @@
         <v>38</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H7" t="s" s="2">
-        <v>47</v>
-      </c>
       <c r="I7" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2252,19 +2248,19 @@
         <v>37</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>37</v>
@@ -2278,10 +2274,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2292,28 +2288,28 @@
         <v>38</v>
       </c>
       <c r="G8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J8" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>47</v>
-      </c>
       <c r="K8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2363,19 +2359,19 @@
         <v>37</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>37</v>
@@ -2389,10 +2385,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2412,19 +2408,19 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2474,7 +2470,7 @@
         <v>37</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>38</v>
@@ -2486,7 +2482,7 @@
         <v>37</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>37</v>
@@ -2500,10 +2496,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2523,19 +2519,19 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2561,31 +2557,31 @@
         <v>37</v>
       </c>
       <c r="X10" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="Z10" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="Y10" t="s" s="2">
+      <c r="AA10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF10" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>38</v>
@@ -2597,7 +2593,7 @@
         <v>37</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>37</v>
@@ -2611,10 +2607,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2634,19 +2630,19 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N11" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2672,31 +2668,31 @@
         <v>37</v>
       </c>
       <c r="X11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Z11" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="AA11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>38</v>
@@ -2708,7 +2704,7 @@
         <v>37</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>37</v>
@@ -2722,10 +2718,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2736,28 +2732,28 @@
         <v>38</v>
       </c>
       <c r="G12" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>47</v>
-      </c>
       <c r="J12" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2807,19 +2803,19 @@
         <v>37</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>37</v>
@@ -2833,10 +2829,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2847,7 +2843,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>37</v>
@@ -2859,16 +2855,16 @@
         <v>37</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2894,43 +2890,43 @@
         <v>37</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="Z13" t="s" s="2">
+      <c r="AA13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="AA13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>130</v>
-      </c>
       <c r="AG13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>37</v>
@@ -2944,21 +2940,21 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>37</v>
@@ -2970,16 +2966,16 @@
         <v>37</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3029,22 +3025,22 @@
         <v>37</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>37</v>
@@ -3055,14 +3051,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3081,16 +3077,16 @@
         <v>37</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3140,7 +3136,7 @@
         <v>37</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>38</v>
@@ -3155,7 +3151,7 @@
         <v>37</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>37</v>
@@ -3166,14 +3162,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3192,16 +3188,16 @@
         <v>37</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3251,7 +3247,7 @@
         <v>37</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>38</v>
@@ -3263,10 +3259,10 @@
         <v>37</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>37</v>
@@ -3277,14 +3273,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3297,25 +3293,25 @@
         <v>37</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O17" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>37</v>
@@ -3364,7 +3360,7 @@
         <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>38</v>
@@ -3376,10 +3372,10 @@
         <v>37</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>37</v>
@@ -3390,10 +3386,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3413,16 +3409,16 @@
         <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3473,7 +3469,7 @@
         <v>37</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>38</v>
@@ -3485,24 +3481,24 @@
         <v>37</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>164</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3513,25 +3509,25 @@
         <v>38</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>47</v>
-      </c>
       <c r="K19" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3582,36 +3578,36 @@
         <v>37</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>169</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3622,28 +3618,28 @@
         <v>38</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>47</v>
-      </c>
       <c r="J20" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3669,60 +3665,60 @@
         <v>37</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="Z20" t="s" s="2">
+      <c r="AA20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AA20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>179</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3733,28 +3729,28 @@
         <v>38</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>47</v>
-      </c>
       <c r="K21" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3780,60 +3776,60 @@
         <v>37</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Y21" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="Z21" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Z21" t="s" s="2">
+      <c r="AA21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AA21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>189</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3844,29 +3840,29 @@
         <v>38</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>47</v>
-      </c>
       <c r="K22" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>37</v>
@@ -3915,25 +3911,25 @@
         <v>37</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>37</v>
@@ -3941,10 +3937,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3955,25 +3951,25 @@
         <v>38</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J23" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>47</v>
-      </c>
       <c r="K23" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4024,36 +4020,36 @@
         <v>37</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>203</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4076,16 +4072,16 @@
         <v>37</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4135,7 +4131,7 @@
         <v>37</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>38</v>
@@ -4147,10 +4143,10 @@
         <v>37</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>37</v>
@@ -4161,10 +4157,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4187,16 +4183,16 @@
         <v>37</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4246,7 +4242,7 @@
         <v>37</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>38</v>
@@ -4258,24 +4254,24 @@
         <v>37</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>217</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4286,7 +4282,7 @@
         <v>38</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>37</v>
@@ -4298,13 +4294,13 @@
         <v>37</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4355,36 +4351,36 @@
         <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>223</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4395,7 +4391,7 @@
         <v>38</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>37</v>
@@ -4407,13 +4403,13 @@
         <v>37</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4464,13 +4460,13 @@
         <v>37</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>37</v>
@@ -4479,7 +4475,7 @@
         <v>37</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>37</v>
@@ -4490,14 +4486,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4516,16 +4512,16 @@
         <v>37</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4575,7 +4571,7 @@
         <v>37</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>38</v>
@@ -4587,10 +4583,10 @@
         <v>37</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>37</v>
@@ -4601,14 +4597,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4621,25 +4617,25 @@
         <v>37</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M29" t="s" s="2">
-        <v>232</v>
-      </c>
       <c r="N29" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>37</v>
@@ -4688,7 +4684,7 @@
         <v>37</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>38</v>
@@ -4700,10 +4696,10 @@
         <v>37</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>37</v>
@@ -4714,10 +4710,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4728,25 +4724,25 @@
         <v>38</v>
       </c>
       <c r="G30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J30" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>47</v>
-      </c>
       <c r="K30" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4797,36 +4793,36 @@
         <v>37</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>240</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4837,25 +4833,25 @@
         <v>38</v>
       </c>
       <c r="G31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J31" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>47</v>
-      </c>
       <c r="K31" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4906,36 +4902,36 @@
         <v>37</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>247</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4946,25 +4942,25 @@
         <v>38</v>
       </c>
       <c r="G32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J32" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>47</v>
-      </c>
       <c r="K32" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5015,25 +5011,25 @@
         <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>37</v>
@@ -5041,10 +5037,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5055,7 +5051,7 @@
         <v>38</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>37</v>
@@ -5067,13 +5063,13 @@
         <v>37</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5124,36 +5120,36 @@
         <v>37</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>257</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5164,7 +5160,7 @@
         <v>38</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>37</v>
@@ -5176,13 +5172,13 @@
         <v>37</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5209,60 +5205,60 @@
         <v>37</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Y34" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="Z34" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="Z34" t="s" s="2">
+      <c r="AA34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AA34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>264</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5273,7 +5269,7 @@
         <v>38</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>37</v>
@@ -5285,16 +5281,16 @@
         <v>37</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5320,60 +5316,60 @@
         <v>37</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Y35" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z35" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="Z35" t="s" s="2">
+      <c r="AA35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AA35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>272</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5384,31 +5380,31 @@
         <v>38</v>
       </c>
       <c r="G36" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J36" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>47</v>
-      </c>
       <c r="K36" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>37</v>
@@ -5433,60 +5429,60 @@
         <v>37</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Y36" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="Z36" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="Z36" t="s" s="2">
+      <c r="AA36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>281</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5509,13 +5505,13 @@
         <v>37</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5566,7 +5562,7 @@
         <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>38</v>
@@ -5578,10 +5574,10 @@
         <v>37</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>37</v>
@@ -5592,10 +5588,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5606,7 +5602,7 @@
         <v>38</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>37</v>
@@ -5618,13 +5614,13 @@
         <v>37</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5675,13 +5671,13 @@
         <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>37</v>
@@ -5690,7 +5686,7 @@
         <v>37</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>37</v>
@@ -5701,14 +5697,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5727,16 +5723,16 @@
         <v>37</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5786,7 +5782,7 @@
         <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>38</v>
@@ -5798,10 +5794,10 @@
         <v>37</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>37</v>
@@ -5812,14 +5808,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -5832,25 +5828,25 @@
         <v>37</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M40" t="s" s="2">
-        <v>232</v>
-      </c>
       <c r="N40" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>37</v>
@@ -5899,7 +5895,7 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
@@ -5911,10 +5907,10 @@
         <v>37</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>37</v>
@@ -5925,10 +5921,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5939,7 +5935,7 @@
         <v>38</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>37</v>
@@ -5951,13 +5947,13 @@
         <v>37</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6008,22 +6004,22 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>37</v>
@@ -6034,10 +6030,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6048,7 +6044,7 @@
         <v>38</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>37</v>
@@ -6060,13 +6056,13 @@
         <v>37</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6093,14 +6089,14 @@
         <v>37</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="Z42" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="Z42" t="s" s="2">
-        <v>297</v>
-      </c>
       <c r="AA42" t="s" s="2">
         <v>37</v>
       </c>
@@ -6117,22 +6113,22 @@
         <v>37</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>37</v>
@@ -6143,10 +6139,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6169,13 +6165,13 @@
         <v>37</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6226,7 +6222,7 @@
         <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
@@ -6238,24 +6234,24 @@
         <v>37</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>303</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6266,7 +6262,7 @@
         <v>38</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>37</v>
@@ -6278,13 +6274,13 @@
         <v>37</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6335,22 +6331,22 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>37</v>
@@ -6361,10 +6357,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6387,13 +6383,13 @@
         <v>37</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6444,7 +6440,7 @@
         <v>37</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
@@ -6456,10 +6452,10 @@
         <v>37</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>37</v>
@@ -6470,10 +6466,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6484,7 +6480,7 @@
         <v>38</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>37</v>
@@ -6496,13 +6492,13 @@
         <v>37</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6553,13 +6549,13 @@
         <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>37</v>
@@ -6568,7 +6564,7 @@
         <v>37</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>37</v>
@@ -6579,14 +6575,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6605,16 +6601,16 @@
         <v>37</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6664,7 +6660,7 @@
         <v>37</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
@@ -6676,10 +6672,10 @@
         <v>37</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>37</v>
@@ -6690,14 +6686,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -6710,25 +6706,25 @@
         <v>37</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M48" t="s" s="2">
-        <v>232</v>
-      </c>
       <c r="N48" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>37</v>
@@ -6777,7 +6773,7 @@
         <v>37</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
@@ -6789,10 +6785,10 @@
         <v>37</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>37</v>
@@ -6803,10 +6799,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6826,16 +6822,16 @@
         <v>37</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6886,7 +6882,7 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
@@ -6898,24 +6894,24 @@
         <v>37</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6926,7 +6922,7 @@
         <v>38</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>37</v>
@@ -6938,13 +6934,13 @@
         <v>37</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6995,22 +6991,22 @@
         <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>37</v>
@@ -7021,10 +7017,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7035,7 +7031,7 @@
         <v>38</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>37</v>
@@ -7047,13 +7043,13 @@
         <v>37</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7080,60 +7076,60 @@
         <v>37</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Y51" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="Z51" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="Z51" t="s" s="2">
+      <c r="AA51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>327</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7144,7 +7140,7 @@
         <v>38</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>37</v>
@@ -7156,13 +7152,13 @@
         <v>37</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7213,36 +7209,36 @@
         <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>332</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7253,7 +7249,7 @@
         <v>38</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>37</v>
@@ -7265,13 +7261,13 @@
         <v>37</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7322,36 +7318,36 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>337</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7362,7 +7358,7 @@
         <v>38</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>37</v>
@@ -7374,13 +7370,13 @@
         <v>37</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7407,60 +7403,60 @@
         <v>37</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Y54" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="Z54" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="Z54" t="s" s="2">
+      <c r="AA54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AA54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK54" t="s" s="2">
+      <c r="AL54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>345</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7480,22 +7476,22 @@
         <v>37</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>37</v>
@@ -7520,14 +7516,14 @@
         <v>37</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Y55" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="Z55" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="Z55" t="s" s="2">
-        <v>352</v>
-      </c>
       <c r="AA55" t="s" s="2">
         <v>37</v>
       </c>
@@ -7544,7 +7540,7 @@
         <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
@@ -7556,7 +7552,7 @@
         <v>37</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>37</v>
@@ -7565,15 +7561,15 @@
         <v>37</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7596,13 +7592,13 @@
         <v>37</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7653,7 +7649,7 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>38</v>
@@ -7665,16 +7661,16 @@
         <v>37</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>359</v>
       </c>
     </row>
   </sheetData>
